--- a/usage_plan_table.xlsx
+++ b/usage_plan_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okuda\Documents\スパコン利用料金\利用計画表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yatak\Desktop\2022スパコン課金\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA14D06-9EC5-4AAC-94F2-2B7F034EA343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CFC009F-2058-4414-8F92-1C9E8036A93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="555" windowWidth="27840" windowHeight="16545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="利用目的等" sheetId="10" r:id="rId1"/>
@@ -49,10 +49,18 @@
     <definedName name="年">料金試算表!$A$1</definedName>
     <definedName name="年間日数">_xlfn.DAYS(DATE(年+1,3,31),DATE(年,4,1))+1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -741,16 +749,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -759,14 +767,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -774,7 +782,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -782,7 +790,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -817,14 +825,14 @@
     <font>
       <sz val="14"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1459,10 +1467,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1477,7 +1485,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1493,7 +1501,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1513,34 +1521,34 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1585,10 +1593,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1609,19 +1617,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1634,7 +1642,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1647,7 +1655,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1662,13 +1670,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1720,11 +1728,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1734,15 +1742,36 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1783,26 +1812,123 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1816,6 +1942,66 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1830,184 +2016,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3556,18 +3564,18 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="62" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="62" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="62" customWidth="1"/>
+    <col min="1" max="1" width="6.3984375" style="62" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" style="62" customWidth="1"/>
     <col min="4" max="4" width="12" style="62" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="62" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" style="62" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="62" customWidth="1"/>
     <col min="7" max="7" width="8" style="62" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="62" customWidth="1"/>
-    <col min="9" max="10" width="7.42578125" style="62" customWidth="1"/>
-    <col min="11" max="16384" width="10.85546875" style="62"/>
+    <col min="8" max="8" width="10.8984375" style="62" customWidth="1"/>
+    <col min="9" max="10" width="7.3984375" style="62" customWidth="1"/>
+    <col min="11" max="16384" width="10.8984375" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3590,60 +3598,60 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="102"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="102"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="102"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="89"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="65"/>
@@ -3672,18 +3680,18 @@
       <c r="A11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="69" customHeight="1">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
     </row>
     <row r="13" spans="1:10" ht="45" customHeight="1">
       <c r="A13" s="77" t="s">
@@ -3701,13 +3709,13 @@
       <c r="E13" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="103" t="s">
+      <c r="F13" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1">
       <c r="A14" s="77">
@@ -3717,11 +3725,11 @@
       <c r="C14" s="73"/>
       <c r="D14" s="64"/>
       <c r="E14" s="70"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1">
       <c r="A15" s="77">
@@ -3815,11 +3823,11 @@
       <c r="C21" s="73"/>
       <c r="D21" s="64"/>
       <c r="E21" s="70"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="87"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="94"/>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1">
       <c r="A22" s="77">
@@ -3857,11 +3865,11 @@
       <c r="C24" s="64"/>
       <c r="D24" s="64"/>
       <c r="E24" s="70"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="87"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="94"/>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1">
       <c r="A25" s="77">
@@ -3927,11 +3935,11 @@
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
       <c r="E29" s="70"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="87"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="94"/>
     </row>
     <row r="31" spans="1:10" ht="13.35" customHeight="1">
       <c r="A31" s="62" t="s">
@@ -3939,280 +3947,280 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="88"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="90"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="97"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="91"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="93"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="100"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="91"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="93"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="100"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="91"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="93"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="100"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="91"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="93"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="100"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="91"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="93"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="100"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="91"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="93"/>
+      <c r="A38" s="98"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="100"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="91"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="93"/>
+      <c r="A39" s="98"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="100"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="91"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="93"/>
+      <c r="A40" s="98"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="100"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="91"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="93"/>
+      <c r="A41" s="98"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="100"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="91"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="93"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="100"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="91"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="93"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="100"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="91"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="93"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="100"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="91"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="93"/>
+      <c r="A45" s="98"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="100"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="91"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="93"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="100"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="91"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="93"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="100"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="91"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="93"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="100"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="91"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="93"/>
+      <c r="A49" s="98"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="100"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="91"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="92"/>
-      <c r="J50" s="93"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="100"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="91"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="92"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="93"/>
+      <c r="A51" s="98"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="100"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="91"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="93"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="99"/>
+      <c r="J52" s="100"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="91"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="93"/>
+      <c r="A53" s="98"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="100"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="94"/>
-      <c r="B54" s="95"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="95"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
-      <c r="I54" s="95"/>
-      <c r="J54" s="96"/>
+      <c r="A54" s="101"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="103"/>
     </row>
     <row r="56" spans="1:10" ht="13.35" customHeight="1">
       <c r="A56" s="62" t="s">
@@ -4220,292 +4228,292 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="88"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="89"/>
-      <c r="I57" s="89"/>
-      <c r="J57" s="90"/>
+      <c r="A57" s="95"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="97"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="91"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
-      <c r="J58" s="93"/>
+      <c r="A58" s="98"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="99"/>
+      <c r="J58" s="100"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="91"/>
-      <c r="B59" s="92"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="92"/>
-      <c r="J59" s="93"/>
+      <c r="A59" s="98"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="99"/>
+      <c r="J59" s="100"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="91"/>
-      <c r="B60" s="92"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="92"/>
-      <c r="G60" s="92"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="92"/>
-      <c r="J60" s="93"/>
+      <c r="A60" s="98"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="99"/>
+      <c r="J60" s="100"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="91"/>
-      <c r="B61" s="92"/>
-      <c r="C61" s="92"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
-      <c r="G61" s="92"/>
-      <c r="H61" s="92"/>
-      <c r="I61" s="92"/>
-      <c r="J61" s="93"/>
+      <c r="A61" s="98"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="99"/>
+      <c r="J61" s="100"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="91"/>
-      <c r="B62" s="92"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="92"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="92"/>
-      <c r="I62" s="92"/>
-      <c r="J62" s="93"/>
+      <c r="A62" s="98"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="99"/>
+      <c r="J62" s="100"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="91"/>
-      <c r="B63" s="92"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="92"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="92"/>
-      <c r="J63" s="93"/>
+      <c r="A63" s="98"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="100"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="91"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="92"/>
-      <c r="F64" s="92"/>
-      <c r="G64" s="92"/>
-      <c r="H64" s="92"/>
-      <c r="I64" s="92"/>
-      <c r="J64" s="93"/>
+      <c r="A64" s="98"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99"/>
+      <c r="H64" s="99"/>
+      <c r="I64" s="99"/>
+      <c r="J64" s="100"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="91"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="92"/>
-      <c r="G65" s="92"/>
-      <c r="H65" s="92"/>
-      <c r="I65" s="92"/>
-      <c r="J65" s="93"/>
+      <c r="A65" s="98"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="99"/>
+      <c r="H65" s="99"/>
+      <c r="I65" s="99"/>
+      <c r="J65" s="100"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="91"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="92"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="92"/>
-      <c r="J66" s="93"/>
+      <c r="A66" s="98"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="99"/>
+      <c r="J66" s="100"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="91"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="92"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="92"/>
-      <c r="I67" s="92"/>
-      <c r="J67" s="93"/>
+      <c r="A67" s="98"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99"/>
+      <c r="H67" s="99"/>
+      <c r="I67" s="99"/>
+      <c r="J67" s="100"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="91"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="92"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="92"/>
-      <c r="J68" s="93"/>
+      <c r="A68" s="98"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="99"/>
+      <c r="I68" s="99"/>
+      <c r="J68" s="100"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="91"/>
-      <c r="B69" s="92"/>
-      <c r="C69" s="92"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="92"/>
-      <c r="G69" s="92"/>
-      <c r="H69" s="92"/>
-      <c r="I69" s="92"/>
-      <c r="J69" s="93"/>
+      <c r="A69" s="98"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="99"/>
+      <c r="H69" s="99"/>
+      <c r="I69" s="99"/>
+      <c r="J69" s="100"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="91"/>
-      <c r="B70" s="92"/>
-      <c r="C70" s="92"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="92"/>
-      <c r="G70" s="92"/>
-      <c r="H70" s="92"/>
-      <c r="I70" s="92"/>
-      <c r="J70" s="93"/>
+      <c r="A70" s="98"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="99"/>
+      <c r="E70" s="99"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="99"/>
+      <c r="H70" s="99"/>
+      <c r="I70" s="99"/>
+      <c r="J70" s="100"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="91"/>
-      <c r="B71" s="92"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="92"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="92"/>
-      <c r="G71" s="92"/>
-      <c r="H71" s="92"/>
-      <c r="I71" s="92"/>
-      <c r="J71" s="93"/>
+      <c r="A71" s="98"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99"/>
+      <c r="H71" s="99"/>
+      <c r="I71" s="99"/>
+      <c r="J71" s="100"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="91"/>
-      <c r="B72" s="92"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="92"/>
-      <c r="G72" s="92"/>
-      <c r="H72" s="92"/>
-      <c r="I72" s="92"/>
-      <c r="J72" s="93"/>
+      <c r="A72" s="98"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99"/>
+      <c r="H72" s="99"/>
+      <c r="I72" s="99"/>
+      <c r="J72" s="100"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="91"/>
-      <c r="B73" s="92"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="92"/>
-      <c r="G73" s="92"/>
-      <c r="H73" s="92"/>
-      <c r="I73" s="92"/>
-      <c r="J73" s="93"/>
+      <c r="A73" s="98"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="99"/>
+      <c r="H73" s="99"/>
+      <c r="I73" s="99"/>
+      <c r="J73" s="100"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="91"/>
-      <c r="B74" s="92"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="92"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="93"/>
+      <c r="A74" s="98"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="100"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="91"/>
-      <c r="B75" s="92"/>
-      <c r="C75" s="92"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="92"/>
-      <c r="G75" s="92"/>
-      <c r="H75" s="92"/>
-      <c r="I75" s="92"/>
-      <c r="J75" s="93"/>
+      <c r="A75" s="98"/>
+      <c r="B75" s="99"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="99"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99"/>
+      <c r="H75" s="99"/>
+      <c r="I75" s="99"/>
+      <c r="J75" s="100"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="91"/>
-      <c r="B76" s="92"/>
-      <c r="C76" s="92"/>
-      <c r="D76" s="92"/>
-      <c r="E76" s="92"/>
-      <c r="F76" s="92"/>
-      <c r="G76" s="92"/>
-      <c r="H76" s="92"/>
-      <c r="I76" s="92"/>
-      <c r="J76" s="93"/>
+      <c r="A76" s="98"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="99"/>
+      <c r="H76" s="99"/>
+      <c r="I76" s="99"/>
+      <c r="J76" s="100"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="91"/>
-      <c r="B77" s="92"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="92"/>
-      <c r="F77" s="92"/>
-      <c r="G77" s="92"/>
-      <c r="H77" s="92"/>
-      <c r="I77" s="92"/>
-      <c r="J77" s="93"/>
+      <c r="A77" s="98"/>
+      <c r="B77" s="99"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="99"/>
+      <c r="F77" s="99"/>
+      <c r="G77" s="99"/>
+      <c r="H77" s="99"/>
+      <c r="I77" s="99"/>
+      <c r="J77" s="100"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="91"/>
-      <c r="B78" s="92"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
-      <c r="E78" s="92"/>
-      <c r="F78" s="92"/>
-      <c r="G78" s="92"/>
-      <c r="H78" s="92"/>
-      <c r="I78" s="92"/>
-      <c r="J78" s="93"/>
+      <c r="A78" s="98"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="99"/>
+      <c r="F78" s="99"/>
+      <c r="G78" s="99"/>
+      <c r="H78" s="99"/>
+      <c r="I78" s="99"/>
+      <c r="J78" s="100"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="91"/>
-      <c r="B79" s="92"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="92"/>
-      <c r="F79" s="92"/>
-      <c r="G79" s="92"/>
-      <c r="H79" s="92"/>
-      <c r="I79" s="92"/>
-      <c r="J79" s="93"/>
+      <c r="A79" s="98"/>
+      <c r="B79" s="99"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="99"/>
+      <c r="H79" s="99"/>
+      <c r="I79" s="99"/>
+      <c r="J79" s="100"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="94"/>
-      <c r="B80" s="95"/>
-      <c r="C80" s="95"/>
-      <c r="D80" s="95"/>
-      <c r="E80" s="95"/>
-      <c r="F80" s="95"/>
-      <c r="G80" s="95"/>
-      <c r="H80" s="95"/>
-      <c r="I80" s="95"/>
-      <c r="J80" s="96"/>
+      <c r="A80" s="101"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="102"/>
+      <c r="E80" s="102"/>
+      <c r="F80" s="102"/>
+      <c r="G80" s="102"/>
+      <c r="H80" s="102"/>
+      <c r="I80" s="102"/>
+      <c r="J80" s="103"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="62" t="s">
@@ -4513,283 +4521,291 @@
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="88"/>
-      <c r="B84" s="89"/>
-      <c r="C84" s="89"/>
-      <c r="D84" s="89"/>
-      <c r="E84" s="89"/>
-      <c r="F84" s="89"/>
-      <c r="G84" s="89"/>
-      <c r="H84" s="89"/>
-      <c r="I84" s="89"/>
-      <c r="J84" s="90"/>
+      <c r="A84" s="95"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="96"/>
+      <c r="E84" s="96"/>
+      <c r="F84" s="96"/>
+      <c r="G84" s="96"/>
+      <c r="H84" s="96"/>
+      <c r="I84" s="96"/>
+      <c r="J84" s="97"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="91"/>
-      <c r="B85" s="92"/>
-      <c r="C85" s="92"/>
-      <c r="D85" s="92"/>
-      <c r="E85" s="92"/>
-      <c r="F85" s="92"/>
-      <c r="G85" s="92"/>
-      <c r="H85" s="92"/>
-      <c r="I85" s="92"/>
-      <c r="J85" s="93"/>
+      <c r="A85" s="98"/>
+      <c r="B85" s="99"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
+      <c r="F85" s="99"/>
+      <c r="G85" s="99"/>
+      <c r="H85" s="99"/>
+      <c r="I85" s="99"/>
+      <c r="J85" s="100"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="91"/>
-      <c r="B86" s="92"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="92"/>
-      <c r="E86" s="92"/>
-      <c r="F86" s="92"/>
-      <c r="G86" s="92"/>
-      <c r="H86" s="92"/>
-      <c r="I86" s="92"/>
-      <c r="J86" s="93"/>
+      <c r="A86" s="98"/>
+      <c r="B86" s="99"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="99"/>
+      <c r="E86" s="99"/>
+      <c r="F86" s="99"/>
+      <c r="G86" s="99"/>
+      <c r="H86" s="99"/>
+      <c r="I86" s="99"/>
+      <c r="J86" s="100"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="91"/>
-      <c r="B87" s="92"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="92"/>
-      <c r="F87" s="92"/>
-      <c r="G87" s="92"/>
-      <c r="H87" s="92"/>
-      <c r="I87" s="92"/>
-      <c r="J87" s="93"/>
+      <c r="A87" s="98"/>
+      <c r="B87" s="99"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="99"/>
+      <c r="E87" s="99"/>
+      <c r="F87" s="99"/>
+      <c r="G87" s="99"/>
+      <c r="H87" s="99"/>
+      <c r="I87" s="99"/>
+      <c r="J87" s="100"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="91"/>
-      <c r="B88" s="92"/>
-      <c r="C88" s="92"/>
-      <c r="D88" s="92"/>
-      <c r="E88" s="92"/>
-      <c r="F88" s="92"/>
-      <c r="G88" s="92"/>
-      <c r="H88" s="92"/>
-      <c r="I88" s="92"/>
-      <c r="J88" s="93"/>
+      <c r="A88" s="98"/>
+      <c r="B88" s="99"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="99"/>
+      <c r="G88" s="99"/>
+      <c r="H88" s="99"/>
+      <c r="I88" s="99"/>
+      <c r="J88" s="100"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="91"/>
-      <c r="B89" s="92"/>
-      <c r="C89" s="92"/>
-      <c r="D89" s="92"/>
-      <c r="E89" s="92"/>
-      <c r="F89" s="92"/>
-      <c r="G89" s="92"/>
-      <c r="H89" s="92"/>
-      <c r="I89" s="92"/>
-      <c r="J89" s="93"/>
+      <c r="A89" s="98"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="99"/>
+      <c r="F89" s="99"/>
+      <c r="G89" s="99"/>
+      <c r="H89" s="99"/>
+      <c r="I89" s="99"/>
+      <c r="J89" s="100"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="91"/>
-      <c r="B90" s="92"/>
-      <c r="C90" s="92"/>
-      <c r="D90" s="92"/>
-      <c r="E90" s="92"/>
-      <c r="F90" s="92"/>
-      <c r="G90" s="92"/>
-      <c r="H90" s="92"/>
-      <c r="I90" s="92"/>
-      <c r="J90" s="93"/>
+      <c r="A90" s="98"/>
+      <c r="B90" s="99"/>
+      <c r="C90" s="99"/>
+      <c r="D90" s="99"/>
+      <c r="E90" s="99"/>
+      <c r="F90" s="99"/>
+      <c r="G90" s="99"/>
+      <c r="H90" s="99"/>
+      <c r="I90" s="99"/>
+      <c r="J90" s="100"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="91"/>
-      <c r="B91" s="92"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="92"/>
-      <c r="E91" s="92"/>
-      <c r="F91" s="92"/>
-      <c r="G91" s="92"/>
-      <c r="H91" s="92"/>
-      <c r="I91" s="92"/>
-      <c r="J91" s="93"/>
+      <c r="A91" s="98"/>
+      <c r="B91" s="99"/>
+      <c r="C91" s="99"/>
+      <c r="D91" s="99"/>
+      <c r="E91" s="99"/>
+      <c r="F91" s="99"/>
+      <c r="G91" s="99"/>
+      <c r="H91" s="99"/>
+      <c r="I91" s="99"/>
+      <c r="J91" s="100"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="91"/>
-      <c r="B92" s="92"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="92"/>
-      <c r="E92" s="92"/>
-      <c r="F92" s="92"/>
-      <c r="G92" s="92"/>
-      <c r="H92" s="92"/>
-      <c r="I92" s="92"/>
-      <c r="J92" s="93"/>
+      <c r="A92" s="98"/>
+      <c r="B92" s="99"/>
+      <c r="C92" s="99"/>
+      <c r="D92" s="99"/>
+      <c r="E92" s="99"/>
+      <c r="F92" s="99"/>
+      <c r="G92" s="99"/>
+      <c r="H92" s="99"/>
+      <c r="I92" s="99"/>
+      <c r="J92" s="100"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="91"/>
-      <c r="B93" s="92"/>
-      <c r="C93" s="92"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="92"/>
-      <c r="F93" s="92"/>
-      <c r="G93" s="92"/>
-      <c r="H93" s="92"/>
-      <c r="I93" s="92"/>
-      <c r="J93" s="93"/>
+      <c r="A93" s="98"/>
+      <c r="B93" s="99"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="99"/>
+      <c r="E93" s="99"/>
+      <c r="F93" s="99"/>
+      <c r="G93" s="99"/>
+      <c r="H93" s="99"/>
+      <c r="I93" s="99"/>
+      <c r="J93" s="100"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="91"/>
-      <c r="B94" s="92"/>
-      <c r="C94" s="92"/>
-      <c r="D94" s="92"/>
-      <c r="E94" s="92"/>
-      <c r="F94" s="92"/>
-      <c r="G94" s="92"/>
-      <c r="H94" s="92"/>
-      <c r="I94" s="92"/>
-      <c r="J94" s="93"/>
+      <c r="A94" s="98"/>
+      <c r="B94" s="99"/>
+      <c r="C94" s="99"/>
+      <c r="D94" s="99"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99"/>
+      <c r="G94" s="99"/>
+      <c r="H94" s="99"/>
+      <c r="I94" s="99"/>
+      <c r="J94" s="100"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="91"/>
-      <c r="B95" s="92"/>
-      <c r="C95" s="92"/>
-      <c r="D95" s="92"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="92"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="92"/>
-      <c r="I95" s="92"/>
-      <c r="J95" s="93"/>
+      <c r="A95" s="98"/>
+      <c r="B95" s="99"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="99"/>
+      <c r="G95" s="99"/>
+      <c r="H95" s="99"/>
+      <c r="I95" s="99"/>
+      <c r="J95" s="100"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="91"/>
-      <c r="B96" s="92"/>
-      <c r="C96" s="92"/>
-      <c r="D96" s="92"/>
-      <c r="E96" s="92"/>
-      <c r="F96" s="92"/>
-      <c r="G96" s="92"/>
-      <c r="H96" s="92"/>
-      <c r="I96" s="92"/>
-      <c r="J96" s="93"/>
+      <c r="A96" s="98"/>
+      <c r="B96" s="99"/>
+      <c r="C96" s="99"/>
+      <c r="D96" s="99"/>
+      <c r="E96" s="99"/>
+      <c r="F96" s="99"/>
+      <c r="G96" s="99"/>
+      <c r="H96" s="99"/>
+      <c r="I96" s="99"/>
+      <c r="J96" s="100"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="91"/>
-      <c r="B97" s="92"/>
-      <c r="C97" s="92"/>
-      <c r="D97" s="92"/>
-      <c r="E97" s="92"/>
-      <c r="F97" s="92"/>
-      <c r="G97" s="92"/>
-      <c r="H97" s="92"/>
-      <c r="I97" s="92"/>
-      <c r="J97" s="93"/>
+      <c r="A97" s="98"/>
+      <c r="B97" s="99"/>
+      <c r="C97" s="99"/>
+      <c r="D97" s="99"/>
+      <c r="E97" s="99"/>
+      <c r="F97" s="99"/>
+      <c r="G97" s="99"/>
+      <c r="H97" s="99"/>
+      <c r="I97" s="99"/>
+      <c r="J97" s="100"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="91"/>
-      <c r="B98" s="92"/>
-      <c r="C98" s="92"/>
-      <c r="D98" s="92"/>
-      <c r="E98" s="92"/>
-      <c r="F98" s="92"/>
-      <c r="G98" s="92"/>
-      <c r="H98" s="92"/>
-      <c r="I98" s="92"/>
-      <c r="J98" s="93"/>
+      <c r="A98" s="98"/>
+      <c r="B98" s="99"/>
+      <c r="C98" s="99"/>
+      <c r="D98" s="99"/>
+      <c r="E98" s="99"/>
+      <c r="F98" s="99"/>
+      <c r="G98" s="99"/>
+      <c r="H98" s="99"/>
+      <c r="I98" s="99"/>
+      <c r="J98" s="100"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="91"/>
-      <c r="B99" s="92"/>
-      <c r="C99" s="92"/>
-      <c r="D99" s="92"/>
-      <c r="E99" s="92"/>
-      <c r="F99" s="92"/>
-      <c r="G99" s="92"/>
-      <c r="H99" s="92"/>
-      <c r="I99" s="92"/>
-      <c r="J99" s="93"/>
+      <c r="A99" s="98"/>
+      <c r="B99" s="99"/>
+      <c r="C99" s="99"/>
+      <c r="D99" s="99"/>
+      <c r="E99" s="99"/>
+      <c r="F99" s="99"/>
+      <c r="G99" s="99"/>
+      <c r="H99" s="99"/>
+      <c r="I99" s="99"/>
+      <c r="J99" s="100"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="91"/>
-      <c r="B100" s="92"/>
-      <c r="C100" s="92"/>
-      <c r="D100" s="92"/>
-      <c r="E100" s="92"/>
-      <c r="F100" s="92"/>
-      <c r="G100" s="92"/>
-      <c r="H100" s="92"/>
-      <c r="I100" s="92"/>
-      <c r="J100" s="93"/>
+      <c r="A100" s="98"/>
+      <c r="B100" s="99"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="99"/>
+      <c r="E100" s="99"/>
+      <c r="F100" s="99"/>
+      <c r="G100" s="99"/>
+      <c r="H100" s="99"/>
+      <c r="I100" s="99"/>
+      <c r="J100" s="100"/>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="91"/>
-      <c r="B101" s="92"/>
-      <c r="C101" s="92"/>
-      <c r="D101" s="92"/>
-      <c r="E101" s="92"/>
-      <c r="F101" s="92"/>
-      <c r="G101" s="92"/>
-      <c r="H101" s="92"/>
-      <c r="I101" s="92"/>
-      <c r="J101" s="93"/>
+      <c r="A101" s="98"/>
+      <c r="B101" s="99"/>
+      <c r="C101" s="99"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="99"/>
+      <c r="F101" s="99"/>
+      <c r="G101" s="99"/>
+      <c r="H101" s="99"/>
+      <c r="I101" s="99"/>
+      <c r="J101" s="100"/>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="91"/>
-      <c r="B102" s="92"/>
-      <c r="C102" s="92"/>
-      <c r="D102" s="92"/>
-      <c r="E102" s="92"/>
-      <c r="F102" s="92"/>
-      <c r="G102" s="92"/>
-      <c r="H102" s="92"/>
-      <c r="I102" s="92"/>
-      <c r="J102" s="93"/>
+      <c r="A102" s="98"/>
+      <c r="B102" s="99"/>
+      <c r="C102" s="99"/>
+      <c r="D102" s="99"/>
+      <c r="E102" s="99"/>
+      <c r="F102" s="99"/>
+      <c r="G102" s="99"/>
+      <c r="H102" s="99"/>
+      <c r="I102" s="99"/>
+      <c r="J102" s="100"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="91"/>
-      <c r="B103" s="92"/>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="92"/>
-      <c r="F103" s="92"/>
-      <c r="G103" s="92"/>
-      <c r="H103" s="92"/>
-      <c r="I103" s="92"/>
-      <c r="J103" s="93"/>
+      <c r="A103" s="98"/>
+      <c r="B103" s="99"/>
+      <c r="C103" s="99"/>
+      <c r="D103" s="99"/>
+      <c r="E103" s="99"/>
+      <c r="F103" s="99"/>
+      <c r="G103" s="99"/>
+      <c r="H103" s="99"/>
+      <c r="I103" s="99"/>
+      <c r="J103" s="100"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="91"/>
-      <c r="B104" s="92"/>
-      <c r="C104" s="92"/>
-      <c r="D104" s="92"/>
-      <c r="E104" s="92"/>
-      <c r="F104" s="92"/>
-      <c r="G104" s="92"/>
-      <c r="H104" s="92"/>
-      <c r="I104" s="92"/>
-      <c r="J104" s="93"/>
+      <c r="A104" s="98"/>
+      <c r="B104" s="99"/>
+      <c r="C104" s="99"/>
+      <c r="D104" s="99"/>
+      <c r="E104" s="99"/>
+      <c r="F104" s="99"/>
+      <c r="G104" s="99"/>
+      <c r="H104" s="99"/>
+      <c r="I104" s="99"/>
+      <c r="J104" s="100"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="91"/>
-      <c r="B105" s="92"/>
-      <c r="C105" s="92"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="92"/>
-      <c r="F105" s="92"/>
-      <c r="G105" s="92"/>
-      <c r="H105" s="92"/>
-      <c r="I105" s="92"/>
-      <c r="J105" s="93"/>
+      <c r="A105" s="98"/>
+      <c r="B105" s="99"/>
+      <c r="C105" s="99"/>
+      <c r="D105" s="99"/>
+      <c r="E105" s="99"/>
+      <c r="F105" s="99"/>
+      <c r="G105" s="99"/>
+      <c r="H105" s="99"/>
+      <c r="I105" s="99"/>
+      <c r="J105" s="100"/>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="94"/>
-      <c r="B106" s="95"/>
-      <c r="C106" s="95"/>
-      <c r="D106" s="95"/>
-      <c r="E106" s="95"/>
-      <c r="F106" s="95"/>
-      <c r="G106" s="95"/>
-      <c r="H106" s="95"/>
-      <c r="I106" s="95"/>
-      <c r="J106" s="96"/>
+      <c r="A106" s="101"/>
+      <c r="B106" s="102"/>
+      <c r="C106" s="102"/>
+      <c r="D106" s="102"/>
+      <c r="E106" s="102"/>
+      <c r="F106" s="102"/>
+      <c r="G106" s="102"/>
+      <c r="H106" s="102"/>
+      <c r="I106" s="102"/>
+      <c r="J106" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="A32:J54"/>
+    <mergeCell ref="A57:J80"/>
+    <mergeCell ref="A84:J106"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F14:J14"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="F13:J13"/>
@@ -4799,18 +4815,10 @@
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:J6"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="A32:J54"/>
-    <mergeCell ref="A57:J80"/>
-    <mergeCell ref="A84:J106"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F14:J14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4822,26 +4830,26 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" customWidth="1"/>
-    <col min="5" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" customWidth="1"/>
-    <col min="16" max="20" width="0.140625" customWidth="1"/>
-    <col min="21" max="23" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.09765625" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" customWidth="1"/>
+    <col min="3" max="3" width="32.69921875" customWidth="1"/>
+    <col min="4" max="4" width="45.09765625" customWidth="1"/>
+    <col min="5" max="14" width="8.69921875" customWidth="1"/>
+    <col min="15" max="15" width="17.296875" customWidth="1"/>
+    <col min="16" max="20" width="9.765625E-2" customWidth="1"/>
+    <col min="21" max="23" width="15.09765625" customWidth="1"/>
     <col min="24" max="24" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="51" customHeight="1">
       <c r="A1" s="80">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B1" s="81" t="s">
         <v>77</v>
@@ -4870,114 +4878,114 @@
       <c r="X1" s="41"/>
     </row>
     <row r="2" spans="1:24" ht="45" customHeight="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="140"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="107"/>
     </row>
     <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="153"/>
-      <c r="V3" s="153"/>
-      <c r="W3" s="153"/>
-      <c r="X3" s="154"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="126"/>
     </row>
     <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="142"/>
-      <c r="X4" s="143"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="110"/>
     </row>
     <row r="5" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="142"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="142"/>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="143"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="110"/>
     </row>
     <row r="6" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="38" t="s">
@@ -5008,122 +5016,122 @@
       <c r="X6" s="40"/>
     </row>
     <row r="7" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="145"/>
-      <c r="S7" s="145"/>
-      <c r="T7" s="145"/>
-      <c r="U7" s="145"/>
-      <c r="V7" s="145"/>
-      <c r="W7" s="145"/>
-      <c r="X7" s="146"/>
-    </row>
-    <row r="8" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A8" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="135" t="s">
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="113"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A8" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="151" t="s">
+      <c r="D8" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="129" t="s">
+      <c r="E8" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="147" t="s">
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="155" t="s">
+      <c r="P8" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="126" t="s">
+      <c r="Q8" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="126" t="s">
+      <c r="R8" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="S8" s="126" t="s">
+      <c r="S8" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="T8" s="126" t="s">
+      <c r="T8" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="U8" s="120" t="s">
+      <c r="U8" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="V8" s="123" t="s">
+      <c r="V8" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="W8" s="148" t="s">
+      <c r="W8" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="X8" s="111" t="s">
+      <c r="X8" s="157" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="132" t="s">
+    <row r="9" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A9" s="119"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="149"/>
-      <c r="X9" s="112"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A10" s="136"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="112"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="146"/>
+      <c r="R9" s="146"/>
+      <c r="S9" s="146"/>
+      <c r="T9" s="146"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="122"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="71"/>
       <c r="F10" s="11"/>
       <c r="G10" s="71"/>
@@ -5134,22 +5142,22 @@
       <c r="L10" s="29"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="149"/>
-      <c r="X10" s="112"/>
-    </row>
-    <row r="11" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A11" s="137"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="113"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="146"/>
+      <c r="S10" s="146"/>
+      <c r="T10" s="146"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="143"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="122"/>
+    </row>
+    <row r="11" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A11" s="120"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="123"/>
       <c r="E11" s="72"/>
       <c r="F11" s="13"/>
       <c r="G11" s="72"/>
@@ -5160,23 +5168,23 @@
       <c r="L11" s="33"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="125"/>
-      <c r="W11" s="150"/>
-      <c r="X11" s="113"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="144"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="123"/>
     </row>
     <row r="12" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="82">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="B12" s="82">
-        <v>45016</v>
+        <v>45382</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
@@ -5212,7 +5220,7 @@
       </c>
       <c r="T12" s="46">
         <f t="shared" ref="T12:T26" si="2">IF(AND($A12&lt;=DATE(年,12,1),$B12&gt;=DATE(年+1,3,31)),DATEDIF(DATE(年,12,1),DATE(年+1,3,31),"d")+1,IF(AND($A12&gt;DATE(年,12,1),$A12&lt;=DATE(年+1,3,31),$B12&gt;=DATE(年+1,3,31)),DATEDIF($A12,DATE(年+1,3,31),"d")+1,IF(AND($A12&lt;=DATE(年,12,1),$B12&gt;=DATE(年,12,1),$B12&lt;=DATE(年+1,3,31)),DATEDIF(DATE(年,12,1),$B12,"d")+1,IF(AND(A12&gt;=DATE(年,12,1),$A12&lt;=DATE(年+1,3,31),$B12&gt;=DATE(年,12,1),$B12&lt;=DATE(年+1,3,31)),DATEDIF($A12,$B12,"d")+1,0))))</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U12" s="55" t="str">
         <f>IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&lt;=30),0,IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&gt;30),ROUND(ROUNDUP($Q12/10,0)*ストレージ一般解析Quota設定のみ単価*(R12/年間日数)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,$A12&gt;=DATE(年,4,1),$A12&lt;=DATE(年,7,31)),ROUND((ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R12/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R12/年間日数)*消費税,0),IF(OR($D12=ThinAMD一般解析,$D12=ThinAMD個人ゲノム,$D12=ThinIntel),ROUND(($Q12*ThinAMD単価*R12/30)*消費税,0),IF($D12=ThinIntelGPU,ROUND(($Q12*ThinIntelGPU単価*R12/30)*消費税,0),IF($D12=Medium,ROUND(($Q12*Medium単価*R12/30)*消費税,0),IF($D12=Fat,ROUND(($Q12*Fat単価*R12/30)*消費税,0),""))))))))</f>
@@ -6016,23 +6024,23 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="20.100000000000001" customHeight="1" thickTop="1">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="119"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="135"/>
       <c r="P27" s="57"/>
       <c r="Q27" s="58"/>
       <c r="R27" s="58"/>
@@ -6056,23 +6064,23 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="114" t="s">
+      <c r="A28" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="116"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="132"/>
       <c r="P28" s="54"/>
       <c r="U28" s="2">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$4)</f>
@@ -6092,23 +6100,23 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="105" t="s">
+      <c r="A29" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="107"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="138"/>
       <c r="P29" s="54"/>
       <c r="U29" s="2">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$5)</f>
@@ -6128,23 +6136,23 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="105" t="s">
+      <c r="A30" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="107"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="137"/>
+      <c r="N30" s="137"/>
+      <c r="O30" s="138"/>
       <c r="P30" s="50"/>
       <c r="Q30" s="46"/>
       <c r="R30" s="46"/>
@@ -6168,23 +6176,23 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="108" t="s">
+      <c r="A31" s="154" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="110"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="155"/>
+      <c r="O31" s="156"/>
       <c r="P31" s="54"/>
       <c r="U31" s="83">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$1,$D12:$D26,Sheet1!$B$1)</f>
@@ -6204,23 +6212,23 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="105" t="s">
+      <c r="A32" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="107"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="137"/>
+      <c r="L32" s="137"/>
+      <c r="M32" s="137"/>
+      <c r="N32" s="137"/>
+      <c r="O32" s="138"/>
       <c r="P32" s="50"/>
       <c r="Q32" s="46"/>
       <c r="R32" s="46"/>
@@ -6244,23 +6252,23 @@
       </c>
     </row>
     <row r="33" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="114" t="s">
+      <c r="A33" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="115"/>
-      <c r="O33" s="116"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="131"/>
+      <c r="O33" s="132"/>
       <c r="P33" s="54"/>
       <c r="U33" s="2">
         <f>SUM(U12:U26)</f>
@@ -6282,17 +6290,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="28">
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="A4:X4"/>
-    <mergeCell ref="A5:X5"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="O8:O11"/>
-    <mergeCell ref="W8:W11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="A3:X3"/>
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="B8:B11"/>
     <mergeCell ref="A33:O33"/>
     <mergeCell ref="A27:O27"/>
     <mergeCell ref="A30:O30"/>
@@ -6308,8 +6305,19 @@
     <mergeCell ref="A29:O29"/>
     <mergeCell ref="A31:O31"/>
     <mergeCell ref="A32:O32"/>
+    <mergeCell ref="A28:O28"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A4:X4"/>
+    <mergeCell ref="A5:X5"/>
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="O8:O11"/>
+    <mergeCell ref="W8:W11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="A3:X3"/>
+    <mergeCell ref="P8:P11"/>
+    <mergeCell ref="B8:B11"/>
     <mergeCell ref="X8:X11"/>
-    <mergeCell ref="A28:O28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -6321,7 +6329,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6335,16 +6343,16 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" customWidth="1"/>
-    <col min="5" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" customWidth="1"/>
-    <col min="16" max="20" width="0.140625" customWidth="1"/>
-    <col min="21" max="23" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.69921875" customWidth="1"/>
+    <col min="4" max="4" width="45.09765625" customWidth="1"/>
+    <col min="5" max="14" width="8.69921875" customWidth="1"/>
+    <col min="15" max="15" width="15.09765625" customWidth="1"/>
+    <col min="16" max="20" width="9.765625E-2" customWidth="1"/>
+    <col min="21" max="23" width="15.09765625" customWidth="1"/>
     <col min="24" max="24" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6379,116 +6387,116 @@
       <c r="X1" s="41"/>
     </row>
     <row r="2" spans="1:24" ht="45" customHeight="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="140"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="107"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="153"/>
-      <c r="V3" s="153"/>
-      <c r="W3" s="153"/>
-      <c r="X3" s="154"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="126"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A4" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="142"/>
-      <c r="X4" s="142"/>
-    </row>
-    <row r="5" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A5" s="141" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A5" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="142"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="142"/>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.95" customHeight="1">
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.9" customHeight="1">
       <c r="A6" s="38" t="s">
         <v>24</v>
       </c>
@@ -6516,123 +6524,123 @@
       <c r="W6" s="39"/>
       <c r="X6" s="39"/>
     </row>
-    <row r="7" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A7" s="141" t="s">
+    <row r="7" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A7" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="145"/>
-      <c r="S7" s="145"/>
-      <c r="T7" s="145"/>
-      <c r="U7" s="145"/>
-      <c r="V7" s="145"/>
-      <c r="W7" s="145"/>
-      <c r="X7" s="145"/>
-    </row>
-    <row r="8" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A8" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="135" t="s">
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A8" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="151" t="s">
+      <c r="D8" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="129" t="s">
+      <c r="E8" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="147" t="s">
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="155" t="s">
+      <c r="P8" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="126" t="s">
+      <c r="Q8" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="126" t="s">
+      <c r="R8" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="S8" s="126" t="s">
+      <c r="S8" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="T8" s="126" t="s">
+      <c r="T8" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="U8" s="120" t="s">
+      <c r="U8" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="V8" s="123" t="s">
+      <c r="V8" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="W8" s="148" t="s">
+      <c r="W8" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="X8" s="111" t="s">
+      <c r="X8" s="157" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="132" t="s">
+    <row r="9" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A9" s="119"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="149"/>
-      <c r="X9" s="112"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A10" s="136"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="112"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="146"/>
+      <c r="R9" s="146"/>
+      <c r="S9" s="146"/>
+      <c r="T9" s="146"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="122"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="27" t="s">
         <v>14</v>
       </c>
@@ -6649,22 +6657,22 @@
       <c r="L10" s="29"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="149"/>
-      <c r="X10" s="112"/>
-    </row>
-    <row r="11" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A11" s="137"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="113"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="146"/>
+      <c r="S10" s="146"/>
+      <c r="T10" s="146"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="143"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="122"/>
+    </row>
+    <row r="11" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A11" s="120"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="123"/>
       <c r="E11" s="30" t="s">
         <v>34</v>
       </c>
@@ -6681,18 +6689,18 @@
       <c r="L11" s="33"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="125"/>
-      <c r="W11" s="150"/>
-      <c r="X11" s="113"/>
-    </row>
-    <row r="12" spans="1:24" ht="15.95" customHeight="1">
+      <c r="O11" s="114"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="144"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="123"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.9" customHeight="1">
       <c r="A12" s="3">
         <v>43922</v>
       </c>
@@ -6762,7 +6770,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.95" customHeight="1">
+    <row r="13" spans="1:24" ht="15.9" customHeight="1">
       <c r="A13" s="3">
         <v>44105</v>
       </c>
@@ -6832,7 +6840,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.95" customHeight="1">
+    <row r="14" spans="1:24" ht="15.9" customHeight="1">
       <c r="A14" s="3">
         <v>43922</v>
       </c>
@@ -6902,7 +6910,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.95" customHeight="1">
+    <row r="15" spans="1:24" ht="15.9" customHeight="1">
       <c r="A15" s="3">
         <v>44105</v>
       </c>
@@ -6972,7 +6980,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.95" customHeight="1">
+    <row r="16" spans="1:24" ht="15.9" customHeight="1">
       <c r="A16" s="3">
         <v>44105</v>
       </c>
@@ -7042,7 +7050,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.95" customHeight="1">
+    <row r="17" spans="1:24" ht="15.9" customHeight="1">
       <c r="A17" s="3">
         <v>43922</v>
       </c>
@@ -7108,7 +7116,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.95" customHeight="1">
+    <row r="18" spans="1:24" ht="15.9" customHeight="1">
       <c r="A18" s="3">
         <v>44105</v>
       </c>
@@ -7174,7 +7182,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.95" customHeight="1">
+    <row r="19" spans="1:24" ht="15.9" customHeight="1">
       <c r="A19" s="3">
         <v>44224</v>
       </c>
@@ -7240,7 +7248,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.95" customHeight="1">
+    <row r="20" spans="1:24" ht="15.9" customHeight="1">
       <c r="A20" s="3">
         <v>44224</v>
       </c>
@@ -7306,7 +7314,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.95" customHeight="1">
+    <row r="21" spans="1:24" ht="15.9" customHeight="1">
       <c r="A21" s="3">
         <v>44224</v>
       </c>
@@ -7372,7 +7380,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.95" customHeight="1">
+    <row r="22" spans="1:24" ht="15.9" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -7428,7 +7436,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.95" customHeight="1">
+    <row r="23" spans="1:24" ht="15.9" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -7484,7 +7492,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.95" customHeight="1">
+    <row r="24" spans="1:24" ht="15.9" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -7540,7 +7548,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.95" customHeight="1">
+    <row r="25" spans="1:24" ht="15.9" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7596,7 +7604,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15.95" customHeight="1" thickBot="1">
+    <row r="26" spans="1:24" ht="15.9" customHeight="1" thickBot="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -7652,24 +7660,24 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.95" customHeight="1" thickTop="1">
-      <c r="A27" s="117" t="s">
+    <row r="27" spans="1:24" ht="15.9" customHeight="1" thickTop="1">
+      <c r="A27" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="119"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="135"/>
       <c r="P27" s="57"/>
       <c r="Q27" s="58"/>
       <c r="R27" s="58"/>
@@ -7692,24 +7700,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A28" s="114" t="s">
+    <row r="28" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A28" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="116"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="132"/>
       <c r="P28" s="54"/>
       <c r="U28" s="2" t="e">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$4)</f>
@@ -7728,24 +7736,24 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A29" s="105" t="s">
+    <row r="29" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A29" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="107"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="138"/>
       <c r="P29" s="50"/>
       <c r="Q29" s="46"/>
       <c r="R29" s="46"/>
@@ -7768,7 +7776,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15.95" customHeight="1">
+    <row r="30" spans="1:24" ht="15.9" customHeight="1">
       <c r="A30" s="158" t="s">
         <v>29</v>
       </c>
@@ -7804,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15.95" customHeight="1">
+    <row r="31" spans="1:24" ht="15.9" customHeight="1">
       <c r="A31" s="161" t="s">
         <v>30</v>
       </c>
@@ -7840,24 +7848,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A32" s="114" t="s">
+    <row r="32" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A32" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="115"/>
-      <c r="O32" s="116"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="132"/>
       <c r="P32" s="56"/>
       <c r="Q32" s="48"/>
       <c r="R32" s="48"/>
@@ -7880,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15.95" customHeight="1">
+    <row r="33" spans="1:24" ht="15.9" customHeight="1">
       <c r="A33" s="164" t="s">
         <v>9</v>
       </c>
@@ -7916,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15.95" customHeight="1">
+    <row r="34" spans="1:24" ht="15.9" customHeight="1">
       <c r="A34" s="158" t="s">
         <v>10</v>
       </c>
@@ -7952,24 +7960,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A35" s="114" t="s">
+    <row r="35" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A35" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="115"/>
-      <c r="O35" s="116"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="131"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="131"/>
+      <c r="O35" s="132"/>
       <c r="P35" s="56"/>
       <c r="Q35" s="48"/>
       <c r="R35" s="48"/>
@@ -7992,24 +8000,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A36" s="114" t="s">
+    <row r="36" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A36" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="115"/>
-      <c r="N36" s="115"/>
-      <c r="O36" s="116"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="131"/>
+      <c r="L36" s="131"/>
+      <c r="M36" s="131"/>
+      <c r="N36" s="131"/>
+      <c r="O36" s="132"/>
       <c r="P36" s="54"/>
       <c r="U36" s="2" t="e">
         <f>SUM(U12:U26)</f>
@@ -8031,6 +8039,21 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="31">
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A30:O30"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="A32:O32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="V8:V11"/>
+    <mergeCell ref="W8:W11"/>
+    <mergeCell ref="S8:S11"/>
+    <mergeCell ref="T8:T11"/>
+    <mergeCell ref="A34:O34"/>
+    <mergeCell ref="R8:R11"/>
+    <mergeCell ref="A28:O28"/>
+    <mergeCell ref="A29:O29"/>
+    <mergeCell ref="A27:O27"/>
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="A3:X3"/>
     <mergeCell ref="A8:A11"/>
@@ -8047,21 +8070,6 @@
     <mergeCell ref="A5:X5"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="U8:U11"/>
-    <mergeCell ref="V8:V11"/>
-    <mergeCell ref="W8:W11"/>
-    <mergeCell ref="S8:S11"/>
-    <mergeCell ref="T8:T11"/>
-    <mergeCell ref="A34:O34"/>
-    <mergeCell ref="R8:R11"/>
-    <mergeCell ref="A28:O28"/>
-    <mergeCell ref="A29:O29"/>
-    <mergeCell ref="A27:O27"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A30:O30"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="A32:O32"/>
-    <mergeCell ref="A33:O33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -8073,7 +8081,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="54" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -8088,18 +8096,18 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" customWidth="1"/>
-    <col min="16" max="20" width="0.140625" customWidth="1"/>
-    <col min="21" max="23" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.69921875" customWidth="1"/>
+    <col min="4" max="4" width="45.09765625" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" customWidth="1"/>
+    <col min="6" max="6" width="13.296875" customWidth="1"/>
+    <col min="7" max="14" width="8.69921875" customWidth="1"/>
+    <col min="15" max="15" width="15.09765625" customWidth="1"/>
+    <col min="16" max="20" width="9.765625E-2" customWidth="1"/>
+    <col min="21" max="23" width="15.09765625" customWidth="1"/>
     <col min="24" max="24" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8134,116 +8142,116 @@
       <c r="X1" s="41"/>
     </row>
     <row r="2" spans="1:24" ht="45" customHeight="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="140"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="107"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="153"/>
-      <c r="V3" s="153"/>
-      <c r="W3" s="153"/>
-      <c r="X3" s="154"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="126"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A4" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="142"/>
-      <c r="X4" s="142"/>
-    </row>
-    <row r="5" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A5" s="141" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A5" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="142"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="142"/>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.95" customHeight="1">
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.9" customHeight="1">
       <c r="A6" s="38" t="s">
         <v>24</v>
       </c>
@@ -8271,123 +8279,123 @@
       <c r="W6" s="39"/>
       <c r="X6" s="39"/>
     </row>
-    <row r="7" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A7" s="141" t="s">
+    <row r="7" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A7" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="145"/>
-      <c r="S7" s="145"/>
-      <c r="T7" s="145"/>
-      <c r="U7" s="145"/>
-      <c r="V7" s="145"/>
-      <c r="W7" s="145"/>
-      <c r="X7" s="145"/>
-    </row>
-    <row r="8" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A8" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="135" t="s">
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A8" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="151" t="s">
+      <c r="D8" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="129" t="s">
+      <c r="E8" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="147" t="s">
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="155" t="s">
+      <c r="P8" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="126" t="s">
+      <c r="Q8" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="126" t="s">
+      <c r="R8" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="S8" s="126" t="s">
+      <c r="S8" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="T8" s="126" t="s">
+      <c r="T8" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="U8" s="120" t="s">
+      <c r="U8" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="V8" s="123" t="s">
+      <c r="V8" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="W8" s="148" t="s">
+      <c r="W8" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="X8" s="111" t="s">
+      <c r="X8" s="157" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="132" t="s">
+    <row r="9" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A9" s="119"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="149"/>
-      <c r="X9" s="112"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A10" s="136"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="112"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="146"/>
+      <c r="R9" s="146"/>
+      <c r="S9" s="146"/>
+      <c r="T9" s="146"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="122"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="27" t="s">
         <v>74</v>
       </c>
@@ -8402,22 +8410,22 @@
       <c r="L10" s="29"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="149"/>
-      <c r="X10" s="112"/>
-    </row>
-    <row r="11" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A11" s="137"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="113"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="146"/>
+      <c r="S10" s="146"/>
+      <c r="T10" s="146"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="143"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="122"/>
+    </row>
+    <row r="11" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A11" s="120"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="123"/>
       <c r="E11" s="30" t="s">
         <v>34</v>
       </c>
@@ -8432,18 +8440,18 @@
       <c r="L11" s="33"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="125"/>
-      <c r="W11" s="150"/>
-      <c r="X11" s="113"/>
-    </row>
-    <row r="12" spans="1:24" ht="15.95" customHeight="1">
+      <c r="O11" s="114"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="144"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="123"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.9" customHeight="1">
       <c r="A12" s="3">
         <v>43922</v>
       </c>
@@ -8511,7 +8519,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.95" customHeight="1">
+    <row r="13" spans="1:24" ht="15.9" customHeight="1">
       <c r="A13" s="3">
         <v>44105</v>
       </c>
@@ -8579,7 +8587,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.95" customHeight="1">
+    <row r="14" spans="1:24" ht="15.9" customHeight="1">
       <c r="A14" s="3">
         <v>43922</v>
       </c>
@@ -8645,7 +8653,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.95" customHeight="1">
+    <row r="15" spans="1:24" ht="15.9" customHeight="1">
       <c r="A15" s="3">
         <v>44105</v>
       </c>
@@ -8711,7 +8719,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.95" customHeight="1">
+    <row r="16" spans="1:24" ht="15.9" customHeight="1">
       <c r="A16" s="3">
         <v>44105</v>
       </c>
@@ -8777,7 +8785,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.95" customHeight="1">
+    <row r="17" spans="1:24" ht="15.9" customHeight="1">
       <c r="A17" s="3">
         <v>43922</v>
       </c>
@@ -8843,7 +8851,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.95" customHeight="1">
+    <row r="18" spans="1:24" ht="15.9" customHeight="1">
       <c r="A18" s="3">
         <v>44105</v>
       </c>
@@ -8909,7 +8917,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.95" customHeight="1">
+    <row r="19" spans="1:24" ht="15.9" customHeight="1">
       <c r="A19" s="3">
         <v>44224</v>
       </c>
@@ -8975,7 +8983,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.95" customHeight="1">
+    <row r="20" spans="1:24" ht="15.9" customHeight="1">
       <c r="A20" s="3">
         <v>44224</v>
       </c>
@@ -9041,7 +9049,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.95" customHeight="1">
+    <row r="21" spans="1:24" ht="15.9" customHeight="1">
       <c r="A21" s="3">
         <v>44224</v>
       </c>
@@ -9107,7 +9115,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.95" customHeight="1">
+    <row r="22" spans="1:24" ht="15.9" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -9163,7 +9171,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.95" customHeight="1">
+    <row r="23" spans="1:24" ht="15.9" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -9219,7 +9227,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.95" customHeight="1">
+    <row r="24" spans="1:24" ht="15.9" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -9275,7 +9283,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.95" customHeight="1">
+    <row r="25" spans="1:24" ht="15.9" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -9331,7 +9339,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15.95" customHeight="1" thickBot="1">
+    <row r="26" spans="1:24" ht="15.9" customHeight="1" thickBot="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -9387,24 +9395,24 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.95" customHeight="1" thickTop="1">
-      <c r="A27" s="117" t="s">
+    <row r="27" spans="1:24" ht="15.9" customHeight="1" thickTop="1">
+      <c r="A27" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="119"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="135"/>
       <c r="P27" s="57"/>
       <c r="Q27" s="58"/>
       <c r="R27" s="58"/>
@@ -9427,24 +9435,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A28" s="114" t="s">
+    <row r="28" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A28" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="116"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="132"/>
       <c r="P28" s="54"/>
       <c r="U28" s="2" t="e">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$4)</f>
@@ -9463,24 +9471,24 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A29" s="105" t="s">
+    <row r="29" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A29" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="107"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="138"/>
       <c r="P29" s="50"/>
       <c r="Q29" s="46"/>
       <c r="R29" s="46"/>
@@ -9503,7 +9511,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15.95" customHeight="1">
+    <row r="30" spans="1:24" ht="15.9" customHeight="1">
       <c r="A30" s="158" t="s">
         <v>29</v>
       </c>
@@ -9539,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15.95" customHeight="1">
+    <row r="31" spans="1:24" ht="15.9" customHeight="1">
       <c r="A31" s="161" t="s">
         <v>30</v>
       </c>
@@ -9575,24 +9583,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A32" s="114" t="s">
+    <row r="32" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A32" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="115"/>
-      <c r="O32" s="116"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="132"/>
       <c r="P32" s="56"/>
       <c r="Q32" s="48"/>
       <c r="R32" s="48"/>
@@ -9615,7 +9623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15.95" customHeight="1">
+    <row r="33" spans="1:24" ht="15.9" customHeight="1">
       <c r="A33" s="164" t="s">
         <v>9</v>
       </c>
@@ -9651,7 +9659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15.95" customHeight="1">
+    <row r="34" spans="1:24" ht="15.9" customHeight="1">
       <c r="A34" s="158" t="s">
         <v>10</v>
       </c>
@@ -9687,24 +9695,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A35" s="114" t="s">
+    <row r="35" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A35" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="115"/>
-      <c r="O35" s="116"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="131"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="131"/>
+      <c r="O35" s="132"/>
       <c r="P35" s="56"/>
       <c r="Q35" s="48"/>
       <c r="R35" s="48"/>
@@ -9727,24 +9735,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A36" s="114" t="s">
+    <row r="36" spans="1:24" ht="15.9" customHeight="1">
+      <c r="A36" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="115"/>
-      <c r="N36" s="115"/>
-      <c r="O36" s="116"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="131"/>
+      <c r="L36" s="131"/>
+      <c r="M36" s="131"/>
+      <c r="N36" s="131"/>
+      <c r="O36" s="132"/>
       <c r="P36" s="54"/>
       <c r="U36" s="2" t="e">
         <f>SUM(U12:U26)</f>
@@ -9766,11 +9774,22 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="31">
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="A3:X3"/>
-    <mergeCell ref="A4:X4"/>
-    <mergeCell ref="A5:X5"/>
-    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A34:O34"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A28:O28"/>
+    <mergeCell ref="A29:O29"/>
+    <mergeCell ref="A30:O30"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="A32:O32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="U8:U11"/>
+    <mergeCell ref="V8:V11"/>
+    <mergeCell ref="W8:W11"/>
+    <mergeCell ref="X8:X11"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="S8:S11"/>
+    <mergeCell ref="T8:T11"/>
     <mergeCell ref="A27:O27"/>
     <mergeCell ref="O8:O11"/>
     <mergeCell ref="P8:P11"/>
@@ -9781,22 +9800,11 @@
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E8:N8"/>
-    <mergeCell ref="U8:U11"/>
-    <mergeCell ref="V8:V11"/>
-    <mergeCell ref="W8:W11"/>
-    <mergeCell ref="X8:X11"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="S8:S11"/>
-    <mergeCell ref="T8:T11"/>
-    <mergeCell ref="A34:O34"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A28:O28"/>
-    <mergeCell ref="A29:O29"/>
-    <mergeCell ref="A30:O30"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="A32:O32"/>
-    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A3:X3"/>
+    <mergeCell ref="A4:X4"/>
+    <mergeCell ref="A5:X5"/>
+    <mergeCell ref="A7:X7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -9808,7 +9816,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -9821,17 +9829,17 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.69921875" customWidth="1"/>
+    <col min="2" max="2" width="29.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9930,7 +9938,7 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="12" spans="1:6">
